--- a/InputFiles/TC49_Canine_Study_COTB_ResponsetoTreatment_Partial Response.xlsx
+++ b/InputFiles/TC49_Canine_Study_COTB_ResponsetoTreatment_Partial Response.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podagatlapalll2\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11060D2E-8AD6-4E90-BC82-E959C281B7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E28FE-8D01-4A4B-8ED3-2D7AB8FF3492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -570,20 +570,20 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.7265625" customWidth="1"/>
-    <col min="3" max="3" width="75.7265625" customWidth="1"/>
-    <col min="4" max="4" width="83.453125" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.77734375" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="83.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="290" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="288" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -634,7 +634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -651,7 +651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
